--- a/src/ExcelsiorClosedXml.Tests/Tests.EmptyList.verified.xlsx
+++ b/src/ExcelsiorClosedXml.Tests/Tests.EmptyList.verified.xlsx
@@ -395,13 +395,13 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="14.282054" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="11.996339" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="15.710625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="11.424911" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.424911" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="10.567768" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="8.710625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="16.282054" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="13.996339" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="17.710625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="13.424911" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="17.424911" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="12.567768" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="10.710625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7">
